--- a/wwwroot/files/Attendance1.xlsx
+++ b/wwwroot/files/Attendance1.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F9F725-7A1A-490E-8188-3ABDC74844FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -356,11 +357,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="G78" sqref="G78"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -393,10 +394,10 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C2" s="3">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D2" s="1">
-        <v>44743</v>
+        <v>44745</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -412,7 +413,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D3" s="1">
-        <v>44744</v>
+        <v>44746</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -428,7 +429,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D4" s="1">
-        <v>44745</v>
+        <v>44747</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -444,7 +445,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D5" s="1">
-        <v>44746</v>
+        <v>44748</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -460,7 +461,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D6" s="1">
-        <v>44747</v>
+        <v>44749</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -476,7 +477,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D7" s="1">
-        <v>44748</v>
+        <v>44752</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -492,7 +493,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D8" s="1">
-        <v>44749</v>
+        <v>44753</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -502,13 +503,13 @@
         <v>29610280104312</v>
       </c>
       <c r="B9" s="3">
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C9" s="3">
         <v>0.70833333333333337</v>
       </c>
       <c r="D9" s="1">
-        <v>44750</v>
+        <v>44754</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -524,7 +525,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D10" s="1">
-        <v>44751</v>
+        <v>44755</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -540,7 +541,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D11" s="1">
-        <v>44752</v>
+        <v>44756</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -556,7 +557,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D12" s="1">
-        <v>44753</v>
+        <v>44759</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -572,7 +573,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D13" s="1">
-        <v>44754</v>
+        <v>44760</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -588,10 +589,8 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D14" s="1">
-        <v>44755</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+        <v>44761</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
@@ -604,28 +603,24 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D15" s="1">
-        <v>44756</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+        <v>44762</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>29610280104312</v>
       </c>
       <c r="B16" s="3">
-        <v>0.4375</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C16" s="3">
         <v>0.70833333333333337</v>
       </c>
       <c r="D16" s="1">
-        <v>44757</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>44763</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>29610280104312</v>
       </c>
@@ -636,12 +631,10 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D17" s="1">
-        <v>44758</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>44766</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>29610280104312</v>
       </c>
@@ -649,15 +642,13 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C18" s="3">
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="D18" s="1">
-        <v>44759</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>44767</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>29610280104312</v>
       </c>
@@ -668,12 +659,10 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D19" s="1">
-        <v>44760</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>44768</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>29610280104312</v>
       </c>
@@ -684,10 +673,10 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D20" s="1">
-        <v>44761</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>44769</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>29610280104312</v>
       </c>
@@ -695,13 +684,13 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C21" s="3">
-        <v>0.70833333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D21" s="1">
-        <v>44762</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>44770</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>29610280104312</v>
       </c>
@@ -712,24 +701,24 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D22" s="1">
-        <v>44763</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>44772</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>29610280104312</v>
       </c>
       <c r="B23" s="3">
-        <v>0.5</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C23" s="3">
         <v>0.70833333333333337</v>
       </c>
       <c r="D23" s="1">
-        <v>44764</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>44773</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>29610280104312</v>
       </c>
@@ -737,13 +726,13 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C24" s="3">
-        <v>0.70833333333333337</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D24" s="1">
-        <v>44765</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>44774</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>29610280104312</v>
       </c>
@@ -754,10 +743,10 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D25" s="1">
-        <v>44766</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>44775</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>29610280104312</v>
       </c>
@@ -765,13 +754,13 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C26" s="3">
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D26" s="1">
-        <v>44767</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>44776</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>29610280104312</v>
       </c>
@@ -779,13 +768,13 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C27" s="3">
-        <v>0.70833333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D27" s="1">
-        <v>44768</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>44777</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>29610280104312</v>
       </c>
@@ -796,10 +785,10 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D28" s="1">
-        <v>44769</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>44780</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>29610280104312</v>
       </c>
@@ -807,27 +796,27 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C29" s="3">
-        <v>0.79166666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D29" s="1">
-        <v>44770</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>44781</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29610280104312</v>
       </c>
       <c r="B30" s="3">
-        <v>0.41666666666666669</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="C30" s="3">
-        <v>0.70833333333333337</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D30" s="1">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>44782</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>29610280104312</v>
       </c>
@@ -838,10 +827,10 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D31" s="1">
-        <v>44772</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>44783</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>29610280104312</v>
       </c>
@@ -852,68 +841,68 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D32" s="1">
-        <v>44773</v>
+        <v>44784</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>29610280104312</v>
+        <v>29610280104314</v>
       </c>
       <c r="B33" s="3">
-        <v>0.41666666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="C33" s="3">
-        <v>0.72916666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D33" s="1">
-        <v>44774</v>
+        <v>44745</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>29610280104312</v>
+        <v>29610280104314</v>
       </c>
       <c r="B34" s="3">
-        <v>0.41666666666666669</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="C34" s="3">
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="D34" s="1">
-        <v>44775</v>
+        <v>44746</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>29610280104312</v>
+        <v>29610280104314</v>
       </c>
       <c r="B35" s="3">
         <v>0.41666666666666669</v>
       </c>
       <c r="C35" s="3">
-        <v>0.70833333333333337</v>
+        <v>0.8125</v>
       </c>
       <c r="D35" s="1">
-        <v>44776</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>29610280104312</v>
+        <v>29610280104314</v>
       </c>
       <c r="B36" s="3">
         <v>0.41666666666666669</v>
       </c>
       <c r="C36" s="3">
-        <v>0.79166666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D36" s="1">
-        <v>44777</v>
+        <v>44748</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>29610280104312</v>
+        <v>29610280104314</v>
       </c>
       <c r="B37" s="3">
         <v>0.41666666666666669</v>
@@ -922,26 +911,26 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D37" s="1">
-        <v>44778</v>
+        <v>44749</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>29610280104312</v>
+        <v>29610280104314</v>
       </c>
       <c r="B38" s="3">
-        <v>0.41666666666666669</v>
+        <v>0.42638888888888887</v>
       </c>
       <c r="C38" s="3">
         <v>0.70833333333333337</v>
       </c>
       <c r="D38" s="1">
-        <v>44779</v>
+        <v>44752</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>29610280104312</v>
+        <v>29610280104314</v>
       </c>
       <c r="B39" s="3">
         <v>0.41666666666666669</v>
@@ -950,12 +939,12 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D39" s="1">
-        <v>44780</v>
+        <v>44753</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>29610280104312</v>
+        <v>29610280104314</v>
       </c>
       <c r="B40" s="3">
         <v>0.41666666666666669</v>
@@ -964,26 +953,26 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D40" s="1">
-        <v>44781</v>
+        <v>44754</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>29610280104312</v>
+        <v>29610280104314</v>
       </c>
       <c r="B41" s="3">
-        <v>0.42708333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C41" s="3">
-        <v>0.72916666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D41" s="1">
-        <v>44782</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>29610280104312</v>
+        <v>29610280104314</v>
       </c>
       <c r="B42" s="3">
         <v>0.41666666666666669</v>
@@ -992,49 +981,49 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D42" s="1">
-        <v>44783</v>
+        <v>44756</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>29610280104312</v>
+        <v>29610280104314</v>
       </c>
       <c r="B43" s="3">
         <v>0.41666666666666669</v>
       </c>
       <c r="C43" s="3">
-        <v>0.70833333333333337</v>
+        <v>0.8125</v>
       </c>
       <c r="D43" s="1">
-        <v>44784</v>
+        <v>44759</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>29610280104312</v>
+        <v>29610280104314</v>
       </c>
       <c r="B44" s="3">
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C44" s="3">
         <v>0.70833333333333337</v>
       </c>
       <c r="D44" s="1">
-        <v>44785</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>29610280104312</v>
+        <v>29610280104314</v>
       </c>
       <c r="B45" s="3">
-        <v>0.54166666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C45" s="3">
         <v>0.70833333333333337</v>
       </c>
       <c r="D45" s="1">
-        <v>44786</v>
+        <v>44761</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1045,10 +1034,10 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C46" s="3">
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D46" s="1">
-        <v>44743</v>
+        <v>44762</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1056,13 +1045,13 @@
         <v>29610280104314</v>
       </c>
       <c r="B47" s="3">
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C47" s="3">
         <v>0.70833333333333337</v>
       </c>
       <c r="D47" s="1">
-        <v>44744</v>
+        <v>44763</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1070,13 +1059,13 @@
         <v>29610280104314</v>
       </c>
       <c r="B48" s="3">
-        <v>0.5</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C48" s="3">
-        <v>0.70833333333333337</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D48" s="1">
-        <v>44745</v>
+        <v>44766</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1084,13 +1073,13 @@
         <v>29610280104314</v>
       </c>
       <c r="B49" s="3">
-        <v>0.54166666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C49" s="3">
         <v>0.75</v>
       </c>
       <c r="D49" s="1">
-        <v>44746</v>
+        <v>44767</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1101,10 +1090,10 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C50" s="3">
-        <v>0.8125</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D50" s="1">
-        <v>44747</v>
+        <v>44768</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1118,7 +1107,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D51" s="1">
-        <v>44748</v>
+        <v>44769</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1129,10 +1118,10 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C52" s="3">
-        <v>0.70833333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D52" s="1">
-        <v>44749</v>
+        <v>44770</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1140,13 +1129,13 @@
         <v>29610280104314</v>
       </c>
       <c r="B53" s="3">
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C53" s="3">
-        <v>0.79166666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D53" s="1">
-        <v>44750</v>
+        <v>44772</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1160,7 +1149,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D54" s="1">
-        <v>44751</v>
+        <v>44773</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1168,13 +1157,13 @@
         <v>29610280104314</v>
       </c>
       <c r="B55" s="3">
-        <v>0.42638888888888887</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C55" s="3">
-        <v>0.70833333333333337</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D55" s="1">
-        <v>44752</v>
+        <v>44774</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1188,7 +1177,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D56" s="1">
-        <v>44753</v>
+        <v>44775</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1202,7 +1191,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D57" s="1">
-        <v>44754</v>
+        <v>44776</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1213,10 +1202,10 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C58" s="3">
-        <v>0.70833333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D58" s="1">
-        <v>44755</v>
+        <v>44777</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1230,7 +1219,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D59" s="1">
-        <v>44756</v>
+        <v>44780</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1238,13 +1227,13 @@
         <v>29610280104314</v>
       </c>
       <c r="B60" s="3">
-        <v>0.4375</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C60" s="3">
         <v>0.70833333333333337</v>
       </c>
       <c r="D60" s="1">
-        <v>44757</v>
+        <v>44781</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1252,13 +1241,13 @@
         <v>29610280104314</v>
       </c>
       <c r="B61" s="3">
-        <v>0.41666666666666669</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="C61" s="3">
-        <v>0.70833333333333337</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D61" s="1">
-        <v>44758</v>
+        <v>44782</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1269,10 +1258,10 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C62" s="3">
-        <v>0.8125</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D62" s="1">
-        <v>44759</v>
+        <v>44783</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1286,371 +1275,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D63" s="1">
-        <v>44760</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
-        <v>29610280104314</v>
-      </c>
-      <c r="B64" s="3">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C64" s="3">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D64" s="1">
-        <v>44761</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
-        <v>29610280104314</v>
-      </c>
-      <c r="B65" s="3">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C65" s="3">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D65" s="1">
-        <v>44762</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
-        <v>29610280104314</v>
-      </c>
-      <c r="B66" s="3">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C66" s="3">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D66" s="1">
-        <v>44763</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
-        <v>29610280104314</v>
-      </c>
-      <c r="B67" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="C67" s="3">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D67" s="1">
-        <v>44764</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
-        <v>29610280104314</v>
-      </c>
-      <c r="B68" s="3">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C68" s="3">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D68" s="1">
-        <v>44765</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
-        <v>29610280104314</v>
-      </c>
-      <c r="B69" s="3">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C69" s="3">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D69" s="1">
-        <v>44766</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="2">
-        <v>29610280104314</v>
-      </c>
-      <c r="B70" s="3">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C70" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D70" s="1">
-        <v>44767</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
-        <v>29610280104314</v>
-      </c>
-      <c r="B71" s="3">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C71" s="3">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D71" s="1">
-        <v>44768</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="2">
-        <v>29610280104314</v>
-      </c>
-      <c r="B72" s="3">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C72" s="3">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D72" s="1">
-        <v>44769</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="2">
-        <v>29610280104314</v>
-      </c>
-      <c r="B73" s="3">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C73" s="3">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D73" s="1">
-        <v>44770</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="2">
-        <v>29610280104314</v>
-      </c>
-      <c r="B74" s="3">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C74" s="3">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D74" s="1">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="2">
-        <v>29610280104314</v>
-      </c>
-      <c r="B75" s="3">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C75" s="3">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D75" s="1">
-        <v>44772</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="2">
-        <v>29610280104314</v>
-      </c>
-      <c r="B76" s="3">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C76" s="3">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D76" s="1">
-        <v>44773</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="2">
-        <v>29610280104314</v>
-      </c>
-      <c r="B77" s="3">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C77" s="3">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="D77" s="1">
-        <v>44774</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="2">
-        <v>29610280104314</v>
-      </c>
-      <c r="B78" s="3">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C78" s="3">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D78" s="1">
-        <v>44775</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
-        <v>29610280104314</v>
-      </c>
-      <c r="B79" s="3">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C79" s="3">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D79" s="1">
-        <v>44776</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="2">
-        <v>29610280104314</v>
-      </c>
-      <c r="B80" s="3">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C80" s="3">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D80" s="1">
-        <v>44777</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="2">
-        <v>29610280104314</v>
-      </c>
-      <c r="B81" s="3">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C81" s="3">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D81" s="1">
-        <v>44778</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="2">
-        <v>29610280104314</v>
-      </c>
-      <c r="B82" s="3">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C82" s="3">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D82" s="1">
-        <v>44779</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="2">
-        <v>29610280104314</v>
-      </c>
-      <c r="B83" s="3">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C83" s="3">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D83" s="1">
-        <v>44780</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="2">
-        <v>29610280104314</v>
-      </c>
-      <c r="B84" s="3">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C84" s="3">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D84" s="1">
-        <v>44781</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="2">
-        <v>29610280104314</v>
-      </c>
-      <c r="B85" s="3">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="C85" s="3">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="D85" s="1">
-        <v>44782</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="2">
-        <v>29610280104314</v>
-      </c>
-      <c r="B86" s="3">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C86" s="3">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D86" s="1">
-        <v>44783</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="2">
-        <v>29610280104314</v>
-      </c>
-      <c r="B87" s="3">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C87" s="3">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D87" s="1">
         <v>44784</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="2">
-        <v>29610280104314</v>
-      </c>
-      <c r="B88" s="3">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C88" s="3">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D88" s="1">
-        <v>44785</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="2">
-        <v>29610280104314</v>
-      </c>
-      <c r="B89" s="3">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C89" s="3">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D89" s="1">
-        <v>44786</v>
       </c>
     </row>
   </sheetData>
